--- a/biology/Zoologie/Dictyna/Dictyna.xlsx
+++ b/biology/Zoologie/Dictyna/Dictyna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dictyna est un genre d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dictyna est un genre d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Asie, en Afrique, en Europe et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Asie, en Afrique, en Europe et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 01/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 01/03/2024) :
 Dictyna abundans Chamberlin &amp; Ivie, 1941
 Dictyna agressa Ivie, 1947
 Dictyna aguasverdes Wunderlich, 2022
@@ -662,7 +678,7 @@
 Dictyna xizangensis Hu &amp; Li, 1987
 Dictyna yongshun Yin, Bao &amp; Kim, 2001
 Dictyna zhangmuensis Hu, 2001
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Dictyna rufa Wunderlich, 2012</t>
         </is>
       </c>
@@ -691,11 +707,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Sundevall en 1833.
-Ergatis[3] et Operaria[3] ont été placés en synonymie par Westring en 1861[4].
-Tosyna[5] a été placé en synonymie par Chamberlin et Gertsch 1958[6].
+Ergatis et Operaria ont été placés en synonymie par Westring en 1861.
+Tosyna a été placé en synonymie par Chamberlin et Gertsch 1958.
 </t>
         </is>
       </c>
@@ -724,7 +742,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sundevall, 1833 : Conspectus Arachnidum. Londini Gothorum, p. 1-39.</t>
         </is>
